--- a/Excel/TanpaELL/Hasil_Pengujian_Map_2_128_avg_length.xlsx
+++ b/Excel/TanpaELL/Hasil_Pengujian_Map_2_128_avg_length.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMHAS\TA_Python_Server\Excel\TanpaELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32590E97-71E9-4C60-915B-EDF6B2F8F9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90251FE6-6FA2-44CA-B4D9-3FFDD54445A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="6120" windowWidth="11712" windowHeight="6216" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waktu Pencarian" sheetId="1" r:id="rId1"/>
@@ -275,6 +275,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -621,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,22 +705,22 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>4.4699999999999991E-4</v>
+        <v>4.2749999999999987E-4</v>
       </c>
       <c r="D4">
-        <v>1.3711000000000001E-3</v>
+        <v>1.7328000000000001E-3</v>
       </c>
       <c r="E4">
-        <v>4.8947999999999986E-3</v>
+        <v>8.6578999999999996E-3</v>
       </c>
       <c r="F4">
-        <v>2.11235E-2</v>
+        <v>6.4764799999999997E-2</v>
       </c>
       <c r="G4">
-        <v>6.9590999999999993E-3</v>
+        <v>1.8895749999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -727,22 +728,22 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>4.2749999999999987E-4</v>
+        <v>3.5579999999999997E-4</v>
       </c>
       <c r="D5">
-        <v>1.7328000000000001E-3</v>
+        <v>1.9962999999999999E-3</v>
       </c>
       <c r="E5">
-        <v>8.6578999999999996E-3</v>
+        <v>1.3353E-2</v>
       </c>
       <c r="F5">
-        <v>6.4764799999999997E-2</v>
+        <v>8.571390000000001E-2</v>
       </c>
       <c r="G5">
-        <v>1.8895749999999999E-2</v>
+        <v>2.5354749999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -750,22 +751,22 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>3.5579999999999997E-4</v>
+        <v>4.4699999999999991E-4</v>
       </c>
       <c r="D6">
-        <v>1.9962999999999999E-3</v>
+        <v>1.3711000000000001E-3</v>
       </c>
       <c r="E6">
-        <v>1.3353E-2</v>
+        <v>4.8947999999999986E-3</v>
       </c>
       <c r="F6">
-        <v>8.571390000000001E-2</v>
+        <v>2.11235E-2</v>
       </c>
       <c r="G6">
-        <v>2.5354749999999999E-2</v>
+        <v>6.9590999999999993E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -773,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>5.1909999999999999E-4</v>
+        <v>4.8930000000000002E-4</v>
       </c>
       <c r="D7">
-        <v>2.3647999999999998E-3</v>
+        <v>2.5796999999999999E-3</v>
       </c>
       <c r="E7">
-        <v>1.45329E-2</v>
+        <v>1.6779200000000001E-2</v>
       </c>
       <c r="F7">
-        <v>9.2688800000000002E-2</v>
+        <v>0.103685</v>
       </c>
       <c r="G7">
-        <v>2.7526399999999999E-2</v>
+        <v>3.0883299999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -796,22 +797,22 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>4.8930000000000002E-4</v>
+        <v>5.1909999999999999E-4</v>
       </c>
       <c r="D8">
-        <v>2.5796999999999999E-3</v>
+        <v>2.3647999999999998E-3</v>
       </c>
       <c r="E8">
-        <v>1.6779200000000001E-2</v>
+        <v>1.45329E-2</v>
       </c>
       <c r="F8">
-        <v>0.103685</v>
+        <v>9.2688800000000002E-2</v>
       </c>
       <c r="G8">
-        <v>3.0883299999999999E-2</v>
+        <v>2.7526399999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -819,22 +820,22 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>3.4239999999999997E-4</v>
+        <v>3.1619999999999999E-4</v>
       </c>
       <c r="D9">
-        <v>7.2290000000000006E-4</v>
+        <v>1.2845000000000001E-3</v>
       </c>
       <c r="E9">
-        <v>1.967E-3</v>
+        <v>4.7674999999999992E-3</v>
       </c>
       <c r="F9">
-        <v>7.7147000000000014E-3</v>
+        <v>2.1801299999999999E-2</v>
       </c>
       <c r="G9">
-        <v>2.6867499999999999E-3</v>
+        <v>7.042375E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -842,22 +843,22 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>3.8519999999999998E-4</v>
+        <v>2.03E-4</v>
       </c>
       <c r="D10">
-        <v>1.2071E-3</v>
+        <v>8.6720000000000005E-4</v>
       </c>
       <c r="E10">
-        <v>3.9260000000000007E-3</v>
+        <v>3.885599999999999E-3</v>
       </c>
       <c r="F10">
-        <v>1.43188E-2</v>
+        <v>1.7153100000000001E-2</v>
       </c>
       <c r="G10">
-        <v>4.9592750000000008E-3</v>
+        <v>5.5272250000000002E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -865,22 +866,22 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>4.7679999999999999E-4</v>
+        <v>2.9240000000000011E-4</v>
       </c>
       <c r="D11">
-        <v>9.8310000000000021E-4</v>
+        <v>1.1398999999999999E-3</v>
       </c>
       <c r="E11">
-        <v>4.1001000000000006E-3</v>
+        <v>4.4457000000000003E-3</v>
       </c>
       <c r="F11">
-        <v>1.56525E-2</v>
+        <v>1.8331099999999999E-2</v>
       </c>
       <c r="G11">
-        <v>5.3031250000000014E-3</v>
+        <v>6.0522750000000011E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -888,22 +889,22 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>2.03E-4</v>
+        <v>2.5710000000000002E-4</v>
       </c>
       <c r="D12">
-        <v>8.6720000000000005E-4</v>
+        <v>1.0794000000000001E-3</v>
       </c>
       <c r="E12">
-        <v>3.885599999999999E-3</v>
+        <v>4.2764999999999999E-3</v>
       </c>
       <c r="F12">
-        <v>1.7153100000000001E-2</v>
+        <v>1.8376300000000002E-2</v>
       </c>
       <c r="G12">
-        <v>5.5272250000000002E-3</v>
+        <v>5.9973250000000004E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -911,22 +912,22 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>2.9240000000000011E-4</v>
+        <v>5.1820000000000013E-4</v>
       </c>
       <c r="D13">
-        <v>1.1398999999999999E-3</v>
+        <v>1.7967E-3</v>
       </c>
       <c r="E13">
-        <v>4.4457000000000003E-3</v>
+        <v>8.9429999999999996E-3</v>
       </c>
       <c r="F13">
-        <v>1.8331099999999999E-2</v>
+        <v>6.5291100000000005E-2</v>
       </c>
       <c r="G13">
-        <v>6.0522750000000011E-3</v>
+        <v>1.9137250000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -934,22 +935,22 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>2.5710000000000002E-4</v>
+        <v>4.793E-4</v>
       </c>
       <c r="D14">
-        <v>1.0794000000000001E-3</v>
+        <v>2.3449E-3</v>
       </c>
       <c r="E14">
-        <v>4.2764999999999999E-3</v>
+        <v>1.01329E-2</v>
       </c>
       <c r="F14">
-        <v>1.8376300000000002E-2</v>
+        <v>9.1915200000000002E-2</v>
       </c>
       <c r="G14">
-        <v>5.9973250000000004E-3</v>
+        <v>2.6218075E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -957,22 +958,22 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>4.771E-4</v>
+        <v>5.1610000000000002E-4</v>
       </c>
       <c r="D15">
-        <v>1.4545999999999999E-3</v>
+        <v>1.9001000000000001E-3</v>
       </c>
       <c r="E15">
-        <v>4.6522999999999998E-3</v>
+        <v>1.06584E-2</v>
       </c>
       <c r="F15">
-        <v>1.9754299999999999E-2</v>
+        <v>6.5912899999999996E-2</v>
       </c>
       <c r="G15">
-        <v>6.5845749999999996E-3</v>
+        <v>1.9746875000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -980,22 +981,22 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>4.9450000000000004E-4</v>
+        <v>3.994E-4</v>
       </c>
       <c r="D16">
-        <v>1.4143000000000001E-3</v>
+        <v>2.0776000000000002E-3</v>
       </c>
       <c r="E16">
-        <v>5.1491000000000002E-3</v>
+        <v>1.3495399999999999E-2</v>
       </c>
       <c r="F16">
-        <v>2.1021700000000001E-2</v>
+        <v>8.653000000000001E-2</v>
       </c>
       <c r="G16">
-        <v>7.0199000000000008E-3</v>
+        <v>2.5625599999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1003,22 +1004,22 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>3.1619999999999999E-4</v>
+        <v>3.8969999999999988E-4</v>
       </c>
       <c r="D17">
-        <v>1.2845000000000001E-3</v>
+        <v>2.1259999999999999E-3</v>
       </c>
       <c r="E17">
-        <v>4.7674999999999992E-3</v>
+        <v>1.332E-2</v>
       </c>
       <c r="F17">
-        <v>2.1801299999999999E-2</v>
+        <v>8.1981499999999999E-2</v>
       </c>
       <c r="G17">
-        <v>7.042375E-3</v>
+        <v>2.4454300000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1026,22 +1027,22 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>5.1820000000000013E-4</v>
+        <v>4.7679999999999999E-4</v>
       </c>
       <c r="D18">
-        <v>1.7967E-3</v>
+        <v>9.8310000000000021E-4</v>
       </c>
       <c r="E18">
-        <v>8.9429999999999996E-3</v>
+        <v>4.1001000000000006E-3</v>
       </c>
       <c r="F18">
-        <v>6.5291100000000005E-2</v>
+        <v>1.56525E-2</v>
       </c>
       <c r="G18">
-        <v>1.9137250000000001E-2</v>
+        <v>5.3031250000000014E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1049,22 +1050,22 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>5.1610000000000002E-4</v>
+        <v>3.4239999999999997E-4</v>
       </c>
       <c r="D19">
-        <v>1.9001000000000001E-3</v>
+        <v>7.2290000000000006E-4</v>
       </c>
       <c r="E19">
-        <v>1.06584E-2</v>
+        <v>1.967E-3</v>
       </c>
       <c r="F19">
-        <v>6.5912899999999996E-2</v>
+        <v>7.7147000000000014E-3</v>
       </c>
       <c r="G19">
-        <v>1.9746875000000001E-2</v>
+        <v>2.6867499999999999E-3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1072,22 +1073,22 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>3.8969999999999988E-4</v>
+        <v>3.8519999999999998E-4</v>
       </c>
       <c r="D20">
-        <v>2.1259999999999999E-3</v>
+        <v>1.2071E-3</v>
       </c>
       <c r="E20">
-        <v>1.332E-2</v>
+        <v>3.9260000000000007E-3</v>
       </c>
       <c r="F20">
-        <v>8.1981499999999999E-2</v>
+        <v>1.43188E-2</v>
       </c>
       <c r="G20">
-        <v>2.4454300000000002E-2</v>
+        <v>4.9592750000000008E-3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1095,22 +1096,22 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>3.994E-4</v>
+        <v>4.9450000000000004E-4</v>
       </c>
       <c r="D21">
-        <v>2.0776000000000002E-3</v>
+        <v>1.4143000000000001E-3</v>
       </c>
       <c r="E21">
-        <v>1.3495399999999999E-2</v>
+        <v>5.1491000000000002E-3</v>
       </c>
       <c r="F21">
-        <v>8.653000000000001E-2</v>
+        <v>2.1021700000000001E-2</v>
       </c>
       <c r="G21">
-        <v>2.5625599999999998E-2</v>
+        <v>7.0199000000000008E-3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1118,22 +1119,22 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C22">
-        <v>4.793E-4</v>
+        <v>4.771E-4</v>
       </c>
       <c r="D22">
-        <v>2.3449E-3</v>
+        <v>1.4545999999999999E-3</v>
       </c>
       <c r="E22">
-        <v>1.01329E-2</v>
+        <v>4.6522999999999998E-3</v>
       </c>
       <c r="F22">
-        <v>9.1915200000000002E-2</v>
+        <v>1.9754299999999999E-2</v>
       </c>
       <c r="G22">
-        <v>2.6218075E-2</v>
+        <v>6.5845749999999996E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1164,22 +1165,22 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>3.9369999999999997E-4</v>
+        <v>3.7609999999999998E-4</v>
       </c>
       <c r="D24">
-        <v>6.9539999999999988E-4</v>
+        <v>1.3641E-3</v>
       </c>
       <c r="E24">
-        <v>1.9949999999999998E-3</v>
+        <v>4.9613000000000001E-3</v>
       </c>
       <c r="F24">
-        <v>7.7473000000000004E-3</v>
+        <v>2.22328E-2</v>
       </c>
       <c r="G24">
-        <v>2.7078499999999999E-3</v>
+        <v>7.2335749999999999E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1187,22 +1188,22 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>4.17E-4</v>
+        <v>4.1849999999999998E-4</v>
       </c>
       <c r="D25">
-        <v>8.4079999999999984E-4</v>
+        <v>1.5100999999999999E-3</v>
       </c>
       <c r="E25">
-        <v>2.0308000000000001E-3</v>
+        <v>5.7673000000000004E-3</v>
       </c>
       <c r="F25">
-        <v>8.001900000000001E-3</v>
+        <v>2.82209E-2</v>
       </c>
       <c r="G25">
-        <v>2.822625E-3</v>
+        <v>8.9792000000000014E-3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1210,22 +1211,22 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C26">
-        <v>3.2890000000000003E-4</v>
+        <v>3.4660000000000002E-4</v>
       </c>
       <c r="D26">
-        <v>8.7129999999999998E-4</v>
+        <v>1.4204E-3</v>
       </c>
       <c r="E26">
-        <v>2.4559E-3</v>
+        <v>6.9736000000000008E-3</v>
       </c>
       <c r="F26">
-        <v>9.4780999999999997E-3</v>
+        <v>3.8077200000000012E-2</v>
       </c>
       <c r="G26">
-        <v>3.2835500000000001E-3</v>
+        <v>1.170445E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1233,22 +1234,22 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>4.6250000000000002E-4</v>
+        <v>2.5569999999999998E-4</v>
       </c>
       <c r="D27">
-        <v>9.3020000000000017E-4</v>
+        <v>9.6509999999999999E-4</v>
       </c>
       <c r="E27">
-        <v>2.7220999999999999E-3</v>
+        <v>4.1422000000000004E-3</v>
       </c>
       <c r="F27">
-        <v>1.03E-2</v>
+        <v>1.8045599999999998E-2</v>
       </c>
       <c r="G27">
-        <v>3.6037E-3</v>
+        <v>5.8521500000000004E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1256,22 +1257,22 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C28">
-        <v>2.5539999999999997E-4</v>
+        <v>2.5759999999999997E-4</v>
       </c>
       <c r="D28">
-        <v>8.9460000000000006E-4</v>
+        <v>9.9400000000000009E-4</v>
       </c>
       <c r="E28">
-        <v>2.7182E-3</v>
+        <v>4.0482000000000001E-3</v>
       </c>
       <c r="F28">
-        <v>1.0311900000000001E-2</v>
+        <v>1.8227199999999999E-2</v>
       </c>
       <c r="G28">
-        <v>3.5450249999999998E-3</v>
+        <v>5.8817500000000007E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1279,22 +1280,22 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C29">
-        <v>3.2539999999999989E-4</v>
+        <v>3.2319999999999989E-4</v>
       </c>
       <c r="D29">
-        <v>9.5209999999999999E-4</v>
+        <v>1.1846999999999999E-3</v>
       </c>
       <c r="E29">
-        <v>3.2339999999999999E-3</v>
+        <v>4.5097999999999996E-3</v>
       </c>
       <c r="F29">
-        <v>1.3518799999999999E-2</v>
+        <v>1.8762299999999999E-2</v>
       </c>
       <c r="G29">
-        <v>4.5075749999999998E-3</v>
+        <v>6.1950000000000009E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1302,22 +1303,22 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C30">
-        <v>4.528E-4</v>
+        <v>5.3359999999999996E-4</v>
       </c>
       <c r="D30">
-        <v>1.2588E-3</v>
+        <v>2.4559E-3</v>
       </c>
       <c r="E30">
-        <v>4.1161000000000001E-3</v>
+        <v>1.0599300000000001E-2</v>
       </c>
       <c r="F30">
-        <v>1.44227E-2</v>
+        <v>9.2249400000000009E-2</v>
       </c>
       <c r="G30">
-        <v>5.0626000000000004E-3</v>
+        <v>2.6459549999999998E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1325,22 +1326,22 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C31">
-        <v>5.933999999999999E-4</v>
+        <v>5.5679999999999998E-4</v>
       </c>
       <c r="D31">
-        <v>1.2252999999999999E-3</v>
+        <v>1.9968999999999998E-3</v>
       </c>
       <c r="E31">
-        <v>3.9833000000000004E-3</v>
+        <v>1.0998300000000001E-2</v>
       </c>
       <c r="F31">
-        <v>1.4845799999999999E-2</v>
+        <v>6.7071499999999992E-2</v>
       </c>
       <c r="G31">
-        <v>5.1619499999999994E-3</v>
+        <v>2.0155875E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1348,22 +1349,22 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C32">
-        <v>3.4719999999999998E-4</v>
+        <v>4.9360000000000007E-4</v>
       </c>
       <c r="D32">
-        <v>1.1225E-3</v>
+        <v>1.9781E-3</v>
       </c>
       <c r="E32">
-        <v>4.1162999999999998E-3</v>
+        <v>1.0644600000000001E-2</v>
       </c>
       <c r="F32">
-        <v>1.5799000000000001E-2</v>
+        <v>6.690779999999999E-2</v>
       </c>
       <c r="G32">
-        <v>5.3462500000000003E-3</v>
+        <v>2.0006025E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1371,22 +1372,22 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C33">
-        <v>2.5569999999999998E-4</v>
+        <v>4.1889999999999999E-4</v>
       </c>
       <c r="D33">
-        <v>9.6509999999999999E-4</v>
+        <v>2.2212999999999998E-3</v>
       </c>
       <c r="E33">
-        <v>4.1422000000000004E-3</v>
+        <v>1.3585E-2</v>
       </c>
       <c r="F33">
-        <v>1.8045599999999998E-2</v>
+        <v>8.2754099999999997E-2</v>
       </c>
       <c r="G33">
-        <v>5.8521500000000004E-3</v>
+        <v>2.4744825000000002E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1394,22 +1395,22 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C34">
-        <v>2.5759999999999997E-4</v>
+        <v>3.2890000000000003E-4</v>
       </c>
       <c r="D34">
-        <v>9.9400000000000009E-4</v>
+        <v>8.7129999999999998E-4</v>
       </c>
       <c r="E34">
-        <v>4.0482000000000001E-3</v>
+        <v>2.4559E-3</v>
       </c>
       <c r="F34">
-        <v>1.8227199999999999E-2</v>
+        <v>9.4780999999999997E-3</v>
       </c>
       <c r="G34">
-        <v>5.8817500000000007E-3</v>
+        <v>3.2835500000000001E-3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1417,22 +1418,22 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C35">
-        <v>3.2319999999999989E-4</v>
+        <v>2.5539999999999997E-4</v>
       </c>
       <c r="D35">
-        <v>1.1846999999999999E-3</v>
+        <v>8.9460000000000006E-4</v>
       </c>
       <c r="E35">
-        <v>4.5097999999999996E-3</v>
+        <v>2.7182E-3</v>
       </c>
       <c r="F35">
-        <v>1.8762299999999999E-2</v>
+        <v>1.0311900000000001E-2</v>
       </c>
       <c r="G35">
-        <v>6.1950000000000009E-3</v>
+        <v>3.5450249999999998E-3</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1440,22 +1441,22 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C36">
-        <v>5.1539999999999995E-4</v>
+        <v>3.4719999999999998E-4</v>
       </c>
       <c r="D36">
-        <v>1.4838E-3</v>
+        <v>1.1225E-3</v>
       </c>
       <c r="E36">
-        <v>4.9031999999999999E-3</v>
+        <v>4.1162999999999998E-3</v>
       </c>
       <c r="F36">
-        <v>2.0056999999999998E-2</v>
+        <v>1.5799000000000001E-2</v>
       </c>
       <c r="G36">
-        <v>6.7398500000000004E-3</v>
+        <v>5.3462500000000003E-3</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1463,22 +1464,22 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C37">
-        <v>3.7609999999999998E-4</v>
+        <v>3.2539999999999989E-4</v>
       </c>
       <c r="D37">
-        <v>1.3641E-3</v>
+        <v>9.5209999999999999E-4</v>
       </c>
       <c r="E37">
-        <v>4.9613000000000001E-3</v>
+        <v>3.2339999999999999E-3</v>
       </c>
       <c r="F37">
-        <v>2.22328E-2</v>
+        <v>1.3518799999999999E-2</v>
       </c>
       <c r="G37">
-        <v>7.2335749999999999E-3</v>
+        <v>4.5075749999999998E-3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1486,22 +1487,22 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C38">
-        <v>4.1849999999999998E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="D38">
-        <v>1.5100999999999999E-3</v>
+        <v>8.4079999999999984E-4</v>
       </c>
       <c r="E38">
-        <v>5.7673000000000004E-3</v>
+        <v>2.0308000000000001E-3</v>
       </c>
       <c r="F38">
-        <v>2.82209E-2</v>
+        <v>8.001900000000001E-3</v>
       </c>
       <c r="G38">
-        <v>8.9792000000000014E-3</v>
+        <v>2.822625E-3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1509,22 +1510,22 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C39">
-        <v>3.4660000000000002E-4</v>
+        <v>3.9369999999999997E-4</v>
       </c>
       <c r="D39">
-        <v>1.4204E-3</v>
+        <v>6.9539999999999988E-4</v>
       </c>
       <c r="E39">
-        <v>6.9736000000000008E-3</v>
+        <v>1.9949999999999998E-3</v>
       </c>
       <c r="F39">
-        <v>3.8077200000000012E-2</v>
+        <v>7.7473000000000004E-3</v>
       </c>
       <c r="G39">
-        <v>1.170445E-2</v>
+        <v>2.7078499999999999E-3</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1532,22 +1533,22 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C40">
-        <v>4.9360000000000007E-4</v>
+        <v>4.6250000000000002E-4</v>
       </c>
       <c r="D40">
-        <v>1.9781E-3</v>
+        <v>9.3020000000000017E-4</v>
       </c>
       <c r="E40">
-        <v>1.0644600000000001E-2</v>
+        <v>2.7220999999999999E-3</v>
       </c>
       <c r="F40">
-        <v>6.690779999999999E-2</v>
+        <v>1.03E-2</v>
       </c>
       <c r="G40">
-        <v>2.0006025E-2</v>
+        <v>3.6037E-3</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1555,22 +1556,22 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C41">
-        <v>5.5679999999999998E-4</v>
+        <v>4.528E-4</v>
       </c>
       <c r="D41">
-        <v>1.9968999999999998E-3</v>
+        <v>1.2588E-3</v>
       </c>
       <c r="E41">
-        <v>1.0998300000000001E-2</v>
+        <v>4.1161000000000001E-3</v>
       </c>
       <c r="F41">
-        <v>6.7071499999999992E-2</v>
+        <v>1.44227E-2</v>
       </c>
       <c r="G41">
-        <v>2.0155875E-2</v>
+        <v>5.0626000000000004E-3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1578,22 +1579,22 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C42">
-        <v>4.1889999999999999E-4</v>
+        <v>5.933999999999999E-4</v>
       </c>
       <c r="D42">
-        <v>2.2212999999999998E-3</v>
+        <v>1.2252999999999999E-3</v>
       </c>
       <c r="E42">
-        <v>1.3585E-2</v>
+        <v>3.9833000000000004E-3</v>
       </c>
       <c r="F42">
-        <v>8.2754099999999997E-2</v>
+        <v>1.4845799999999999E-2</v>
       </c>
       <c r="G42">
-        <v>2.4744825000000002E-2</v>
+        <v>5.1619499999999994E-3</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1601,22 +1602,22 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C43">
-        <v>5.3359999999999996E-4</v>
+        <v>5.1539999999999995E-4</v>
       </c>
       <c r="D43">
-        <v>2.4559E-3</v>
+        <v>1.4838E-3</v>
       </c>
       <c r="E43">
-        <v>1.0599300000000001E-2</v>
+        <v>4.9031999999999999E-3</v>
       </c>
       <c r="F43">
-        <v>9.2249400000000009E-2</v>
+        <v>2.0056999999999998E-2</v>
       </c>
       <c r="G43">
-        <v>2.6459549999999998E-2</v>
+        <v>6.7398500000000004E-3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1624,22 +1625,22 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C44">
-        <v>4.0670000000000002E-4</v>
+        <v>4.3960000000000011E-4</v>
       </c>
       <c r="D44">
-        <v>7.9959999999999992E-4</v>
+        <v>1.5596E-3</v>
       </c>
       <c r="E44">
-        <v>2.0246999999999999E-3</v>
+        <v>6.0836000000000006E-3</v>
       </c>
       <c r="F44">
-        <v>7.8598999999999995E-3</v>
+        <v>2.8995900000000002E-2</v>
       </c>
       <c r="G44">
-        <v>2.7727250000000002E-3</v>
+        <v>9.2696749999999998E-3</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1647,22 +1648,22 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C45">
-        <v>6.108000000000001E-4</v>
+        <v>4.2109999999999988E-4</v>
       </c>
       <c r="D45">
-        <v>9.6810000000000006E-4</v>
+        <v>1.547E-3</v>
       </c>
       <c r="E45">
-        <v>2.4221999999999998E-3</v>
+        <v>7.0873999999999989E-3</v>
       </c>
       <c r="F45">
-        <v>9.676800000000001E-3</v>
+        <v>3.8750999999999987E-2</v>
       </c>
       <c r="G45">
-        <v>3.4194749999999999E-3</v>
+        <v>1.1951625E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1670,22 +1671,22 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C46">
-        <v>4.973E-4</v>
+        <v>3.8999999999999999E-4</v>
       </c>
       <c r="D46">
-        <v>1.1632000000000001E-3</v>
+        <v>1.5456999999999999E-3</v>
       </c>
       <c r="E46">
-        <v>2.6914E-3</v>
+        <v>6.9877000000000012E-3</v>
       </c>
       <c r="F46">
-        <v>1.0339299999999999E-2</v>
+        <v>3.5967600000000002E-2</v>
       </c>
       <c r="G46">
-        <v>3.6727999999999999E-3</v>
+        <v>1.122275E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -1693,22 +1694,22 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C47">
-        <v>5.082000000000001E-4</v>
+        <v>3.1780000000000003E-4</v>
       </c>
       <c r="D47">
-        <v>9.3860000000000005E-4</v>
+        <v>1.0774999999999999E-3</v>
       </c>
       <c r="E47">
-        <v>2.8072000000000001E-3</v>
+        <v>4.3195999999999998E-3</v>
       </c>
       <c r="F47">
-        <v>1.0544E-2</v>
+        <v>1.8130199999999999E-2</v>
       </c>
       <c r="G47">
-        <v>3.699500000000001E-3</v>
+        <v>5.9612750000000003E-3</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -1716,22 +1717,22 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48">
-        <v>6.7559999999999994E-4</v>
+        <v>5.3660000000000003E-4</v>
       </c>
       <c r="D48">
-        <v>1.8010999999999999E-3</v>
+        <v>2.0476000000000001E-3</v>
       </c>
       <c r="E48">
-        <v>3.3430000000000001E-3</v>
+        <v>1.09167E-2</v>
       </c>
       <c r="F48">
-        <v>1.12824E-2</v>
+        <v>6.7580200000000007E-2</v>
       </c>
       <c r="G48">
-        <v>4.2755250000000014E-3</v>
+        <v>2.0270275000000001E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -1739,22 +1740,22 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C49">
-        <v>3.391E-4</v>
+        <v>6.108000000000001E-4</v>
       </c>
       <c r="D49">
-        <v>1.1073000000000001E-3</v>
+        <v>9.6810000000000006E-4</v>
       </c>
       <c r="E49">
-        <v>3.0798000000000002E-3</v>
+        <v>2.4221999999999998E-3</v>
       </c>
       <c r="F49">
-        <v>1.1311399999999999E-2</v>
+        <v>9.676800000000001E-3</v>
       </c>
       <c r="G49">
-        <v>3.9594000000000001E-3</v>
+        <v>3.4194749999999999E-3</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -1762,22 +1763,22 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C50">
-        <v>6.0579999999999998E-4</v>
+        <v>6.7559999999999994E-4</v>
       </c>
       <c r="D50">
-        <v>1.0958000000000001E-3</v>
+        <v>1.8010999999999999E-3</v>
       </c>
       <c r="E50">
-        <v>2.7255000000000001E-3</v>
+        <v>3.3430000000000001E-3</v>
       </c>
       <c r="F50">
-        <v>1.15402E-2</v>
+        <v>1.12824E-2</v>
       </c>
       <c r="G50">
-        <v>3.9918250000000001E-3</v>
+        <v>4.2755250000000014E-3</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1785,22 +1786,22 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C51">
-        <v>3.6860000000000001E-4</v>
+        <v>3.391E-4</v>
       </c>
       <c r="D51">
-        <v>9.8269999999999998E-4</v>
+        <v>1.1073000000000001E-3</v>
       </c>
       <c r="E51">
-        <v>4.2100999999999996E-3</v>
+        <v>3.0798000000000002E-3</v>
       </c>
       <c r="F51">
-        <v>1.3594E-2</v>
+        <v>1.1311399999999999E-2</v>
       </c>
       <c r="G51">
-        <v>4.7888499999999999E-3</v>
+        <v>3.9594000000000001E-3</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -1808,22 +1809,22 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C52">
-        <v>6.4070000000000002E-4</v>
+        <v>5.082000000000001E-4</v>
       </c>
       <c r="D52">
-        <v>1.304E-3</v>
+        <v>9.3860000000000005E-4</v>
       </c>
       <c r="E52">
-        <v>3.9826999999999996E-3</v>
+        <v>2.8072000000000001E-3</v>
       </c>
       <c r="F52">
-        <v>1.4821600000000001E-2</v>
+        <v>1.0544E-2</v>
       </c>
       <c r="G52">
-        <v>5.1872500000000009E-3</v>
+        <v>3.699500000000001E-3</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -1854,22 +1855,22 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C54">
-        <v>3.1780000000000003E-4</v>
+        <v>3.6860000000000001E-4</v>
       </c>
       <c r="D54">
-        <v>1.0774999999999999E-3</v>
+        <v>9.8269999999999998E-4</v>
       </c>
       <c r="E54">
-        <v>4.3195999999999998E-3</v>
+        <v>4.2100999999999996E-3</v>
       </c>
       <c r="F54">
-        <v>1.8130199999999999E-2</v>
+        <v>1.3594E-2</v>
       </c>
       <c r="G54">
-        <v>5.9612750000000003E-3</v>
+        <v>4.7888499999999999E-3</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -1877,22 +1878,22 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C55">
-        <v>4.3960000000000011E-4</v>
+        <v>4.0670000000000002E-4</v>
       </c>
       <c r="D55">
-        <v>1.5596E-3</v>
+        <v>7.9959999999999992E-4</v>
       </c>
       <c r="E55">
-        <v>6.0836000000000006E-3</v>
+        <v>2.0246999999999999E-3</v>
       </c>
       <c r="F55">
-        <v>2.8995900000000002E-2</v>
+        <v>7.8598999999999995E-3</v>
       </c>
       <c r="G55">
-        <v>9.2696749999999998E-3</v>
+        <v>2.7727250000000002E-3</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -1900,22 +1901,22 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C56">
-        <v>3.8999999999999999E-4</v>
+        <v>6.0579999999999998E-4</v>
       </c>
       <c r="D56">
-        <v>1.5456999999999999E-3</v>
+        <v>1.0958000000000001E-3</v>
       </c>
       <c r="E56">
-        <v>6.9877000000000012E-3</v>
+        <v>2.7255000000000001E-3</v>
       </c>
       <c r="F56">
-        <v>3.5967600000000002E-2</v>
+        <v>1.15402E-2</v>
       </c>
       <c r="G56">
-        <v>1.122275E-2</v>
+        <v>3.9918250000000001E-3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -1923,22 +1924,22 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C57">
-        <v>4.2109999999999988E-4</v>
+        <v>4.973E-4</v>
       </c>
       <c r="D57">
-        <v>1.547E-3</v>
+        <v>1.1632000000000001E-3</v>
       </c>
       <c r="E57">
-        <v>7.0873999999999989E-3</v>
+        <v>2.6914E-3</v>
       </c>
       <c r="F57">
-        <v>3.8750999999999987E-2</v>
+        <v>1.0339299999999999E-2</v>
       </c>
       <c r="G57">
-        <v>1.1951625E-2</v>
+        <v>3.6727999999999999E-3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -1946,22 +1947,22 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C58">
-        <v>5.3660000000000003E-4</v>
+        <v>6.4070000000000002E-4</v>
       </c>
       <c r="D58">
-        <v>2.0476000000000001E-3</v>
+        <v>1.304E-3</v>
       </c>
       <c r="E58">
-        <v>1.09167E-2</v>
+        <v>3.9826999999999996E-3</v>
       </c>
       <c r="F58">
-        <v>6.7580200000000007E-2</v>
+        <v>1.4821600000000001E-2</v>
       </c>
       <c r="G58">
-        <v>2.0270275000000001E-2</v>
+        <v>5.1872500000000009E-3</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -1969,22 +1970,22 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C59">
-        <v>6.6779999999999997E-4</v>
+        <v>4.1399999999999998E-4</v>
       </c>
       <c r="D59">
-        <v>1.1566E-3</v>
+        <v>1.6739000000000001E-3</v>
       </c>
       <c r="E59">
-        <v>2.8081999999999998E-3</v>
+        <v>7.1028999999999997E-3</v>
       </c>
       <c r="F59">
-        <v>1.06052E-2</v>
+        <v>3.6262500000000003E-2</v>
       </c>
       <c r="G59">
-        <v>3.8094499999999998E-3</v>
+        <v>1.1363325000000001E-2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2038,22 +2039,22 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62">
-        <v>3.4440000000000002E-4</v>
+        <v>3.3819999999999998E-4</v>
       </c>
       <c r="D62">
-        <v>9.5189999999999999E-4</v>
+        <v>1.127E-3</v>
       </c>
       <c r="E62">
-        <v>3.5346000000000002E-3</v>
+        <v>3.6698999999999998E-3</v>
       </c>
       <c r="F62">
-        <v>1.7148900000000002E-2</v>
+        <v>1.8188900000000001E-2</v>
       </c>
       <c r="G62">
-        <v>5.4949500000000002E-3</v>
+        <v>5.8310000000000002E-3</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2061,22 +2062,22 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C63">
-        <v>3.3819999999999998E-4</v>
+        <v>3.4440000000000002E-4</v>
       </c>
       <c r="D63">
-        <v>1.127E-3</v>
+        <v>9.5189999999999999E-4</v>
       </c>
       <c r="E63">
-        <v>3.6698999999999998E-3</v>
+        <v>3.5346000000000002E-3</v>
       </c>
       <c r="F63">
-        <v>1.8188900000000001E-2</v>
+        <v>1.7148900000000002E-2</v>
       </c>
       <c r="G63">
-        <v>5.8310000000000002E-3</v>
+        <v>5.4949500000000002E-3</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2084,22 +2085,22 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C64">
-        <v>4.1399999999999998E-4</v>
+        <v>6.6779999999999997E-4</v>
       </c>
       <c r="D64">
-        <v>1.6739000000000001E-3</v>
+        <v>1.1566E-3</v>
       </c>
       <c r="E64">
-        <v>7.1028999999999997E-3</v>
+        <v>2.8081999999999998E-3</v>
       </c>
       <c r="F64">
-        <v>3.6262500000000003E-2</v>
+        <v>1.06052E-2</v>
       </c>
       <c r="G64">
-        <v>1.1363325000000001E-2</v>
+        <v>3.8094499999999998E-3</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2139,7 +2140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
